--- a/Backend/Task.xlsx
+++ b/Backend/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padal\OneDrive\Desktop\CodeFest\CodeFest\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8209B-101D-47A1-989A-5D96075E26E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7F78CA-CCBB-40EA-BB11-B39AC072EACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,6 +684,9 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
@@ -716,6 +719,9 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
@@ -748,6 +754,9 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
@@ -780,6 +789,9 @@
       <c r="G5" t="s">
         <v>21</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5" t="s">
         <v>87</v>
       </c>
@@ -812,6 +824,9 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6" t="s">
         <v>33</v>
       </c>
@@ -844,6 +859,9 @@
       <c r="G7" t="s">
         <v>38</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7" t="s">
         <v>36</v>
       </c>
@@ -876,6 +894,9 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
@@ -908,6 +929,9 @@
       <c r="G9" t="s">
         <v>21</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
@@ -940,6 +964,9 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10" t="s">
         <v>88</v>
       </c>
@@ -972,6 +999,9 @@
       <c r="G11" t="s">
         <v>38</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11" t="s">
         <v>89</v>
       </c>
@@ -1004,6 +1034,9 @@
       <c r="G12" t="s">
         <v>21</v>
       </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12" t="s">
         <v>53</v>
       </c>
@@ -1036,6 +1069,9 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13" t="s">
         <v>33</v>
       </c>
@@ -1068,6 +1104,9 @@
       <c r="G14" t="s">
         <v>21</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14" t="s">
         <v>90</v>
       </c>
@@ -1100,6 +1139,9 @@
       <c r="G15" t="s">
         <v>38</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15" t="s">
         <v>62</v>
       </c>
@@ -1132,6 +1174,9 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16" t="s">
         <v>33</v>
       </c>
@@ -1164,6 +1209,9 @@
       <c r="G17" t="s">
         <v>21</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17" t="s">
         <v>71</v>
       </c>
@@ -1196,6 +1244,9 @@
       <c r="G18" t="s">
         <v>21</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18" t="s">
         <v>73</v>
       </c>
@@ -1228,6 +1279,9 @@
       <c r="G19" t="s">
         <v>38</v>
       </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19" t="s">
         <v>76</v>
       </c>
@@ -1260,6 +1314,9 @@
       <c r="G20" t="s">
         <v>15</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20" t="s">
         <v>80</v>
       </c>
@@ -1291,6 +1348,9 @@
       </c>
       <c r="G21" t="s">
         <v>38</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>

--- a/Backend/Task.xlsx
+++ b/Backend/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padal\OneDrive\Desktop\CodeFest\CodeFest\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7F78CA-CCBB-40EA-BB11-B39AC072EACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051380C7-3751-4C46-875E-CC2EEA5075CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>TaskID</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Customer Service</t>
   </si>
   <si>
-    <t>Communication Skills</t>
-  </si>
-  <si>
     <t>Cloud Infrastructure</t>
   </si>
   <si>
@@ -298,6 +295,12 @@
   </si>
   <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>UX/UI Design</t>
+  </si>
+  <si>
+    <t>Communication</t>
   </si>
 </sst>
 </file>
@@ -619,11 +622,14 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -673,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1">
         <v>45301</v>
@@ -968,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" s="1">
         <v>45306</v>
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1">
         <v>45296</v>
@@ -1108,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1">
         <v>45301</v>
@@ -1268,10 +1274,10 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1297,16 +1303,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>81</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1318,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="1">
         <v>45301</v>
@@ -1332,13 +1338,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>85</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
